--- a/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Calendar.xlsx
+++ b/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Calendar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13500"/>
+    <workbookView windowWidth="22368" windowHeight="9444"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,27 +14,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="138">
   <si>
     <t>@default</t>
   </si>
   <si>
+    <t>Character</t>
+  </si>
+  <si>
     <t>Year</t>
   </si>
   <si>
+    <t>Country</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
     <t>名字</t>
   </si>
   <si>
-    <t>出处</t>
-  </si>
-  <si>
-    <t>开始</t>
-  </si>
-  <si>
-    <t>结束</t>
+    <t>別名</t>
+  </si>
+  <si>
+    <t>出處</t>
+  </si>
+  <si>
+    <t>刊載</t>
+  </si>
+  <si>
+    <t>創制人</t>
+  </si>
+  <si>
+    <t>制定年</t>
+  </si>
+  <si>
+    <t>國家</t>
+  </si>
+  <si>
+    <t>開始</t>
+  </si>
+  <si>
+    <t>結束</t>
+  </si>
+  <si>
+    <t>再次開始</t>
+  </si>
+  <si>
+    <t>再次結束</t>
   </si>
   <si>
     <t>int</t>
@@ -43,19 +70,364 @@
     <t>string</t>
   </si>
   <si>
+    <t>string[]</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>alias</t>
+  </si>
+  <si>
     <t>source</t>
   </si>
   <si>
+    <t>publication</t>
+  </si>
+  <si>
+    <t>creator</t>
+  </si>
+  <si>
+    <t>formulate</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
     <t>begin</t>
   </si>
   <si>
     <t>end</t>
+  </si>
+  <si>
+    <t>againBegin</t>
+  </si>
+  <si>
+    <t>againEnd</t>
+  </si>
+  <si>
+    <t>黃帝歷</t>
+  </si>
+  <si>
+    <t>10020001&amp;120030001</t>
+  </si>
+  <si>
+    <t>顓頊歷</t>
+  </si>
+  <si>
+    <t>夏歷</t>
+  </si>
+  <si>
+    <t>殷歷</t>
+  </si>
+  <si>
+    <t>周歷</t>
+  </si>
+  <si>
+    <t>魯歷</t>
+  </si>
+  <si>
+    <t>太初歷</t>
+  </si>
+  <si>
+    <t>三統歷</t>
+  </si>
+  <si>
+    <t>600180043&amp;600180044</t>
+  </si>
+  <si>
+    <t>四分歷</t>
+  </si>
+  <si>
+    <t>700180019&amp;700180020</t>
+  </si>
+  <si>
+    <t>乾象歷</t>
+  </si>
+  <si>
+    <t>黃初歷</t>
+  </si>
+  <si>
+    <t>太和歷</t>
+  </si>
+  <si>
+    <t>景初歷</t>
+  </si>
+  <si>
+    <t>泰始歷&amp;永初歷</t>
+  </si>
+  <si>
+    <t>10050001&amp;10060001</t>
+  </si>
+  <si>
+    <t>正歷</t>
+  </si>
+  <si>
+    <t>乾度歷</t>
+  </si>
+  <si>
+    <t>永和歷</t>
+  </si>
+  <si>
+    <t>三紀甲子歷</t>
+  </si>
+  <si>
+    <t>元始歷</t>
+  </si>
+  <si>
+    <t>五寅元歷</t>
+  </si>
+  <si>
+    <t>元嘉歷</t>
+  </si>
+  <si>
+    <t>建元歷</t>
+  </si>
+  <si>
+    <t>大明歷</t>
+  </si>
+  <si>
+    <t>景明歷</t>
+  </si>
+  <si>
+    <t>神龜歷</t>
+  </si>
+  <si>
+    <t>正光歷</t>
+  </si>
+  <si>
+    <t>興和歷</t>
+  </si>
+  <si>
+    <t>大同歷</t>
+  </si>
+  <si>
+    <t>九宮行碁歷</t>
+  </si>
+  <si>
+    <t>天保歷</t>
+  </si>
+  <si>
+    <t>天和歷</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>孝孫歷</t>
+  </si>
+  <si>
+    <t>甲寅元歷</t>
+  </si>
+  <si>
+    <t>孟賓歷</t>
+  </si>
+  <si>
+    <t>大象歷</t>
+  </si>
+  <si>
+    <t>開皇歷</t>
+  </si>
+  <si>
+    <t>大業歷</t>
+  </si>
+  <si>
+    <t>皇極歷</t>
+  </si>
+  <si>
+    <t>戊寅元歷</t>
+  </si>
+  <si>
+    <t>10080001&amp;10080004</t>
+  </si>
+  <si>
+    <t>麟德歷</t>
+  </si>
+  <si>
+    <t>光宅歷</t>
+  </si>
+  <si>
+    <t>神龍歷</t>
+  </si>
+  <si>
+    <t>大衍歷</t>
+  </si>
+  <si>
+    <t>至德歷</t>
+  </si>
+  <si>
+    <t>五紀歷</t>
+  </si>
+  <si>
+    <t>符天歷</t>
+  </si>
+  <si>
+    <t>正元歷</t>
+  </si>
+  <si>
+    <t>觀象歷</t>
+  </si>
+  <si>
+    <t>宣明歷</t>
+  </si>
+  <si>
+    <t>崇玄歷</t>
+  </si>
+  <si>
+    <t>永昌歷</t>
+  </si>
+  <si>
+    <t>正象歷</t>
+  </si>
+  <si>
+    <t>調元歷</t>
+  </si>
+  <si>
+    <t>中正歷</t>
+  </si>
+  <si>
+    <t>齊正歷</t>
+  </si>
+  <si>
+    <t>明玄歷</t>
+  </si>
+  <si>
+    <t>欽天歷</t>
+  </si>
+  <si>
+    <t>10090001&amp;10090003</t>
+  </si>
+  <si>
+    <t>應天歷</t>
+  </si>
+  <si>
+    <t>乾元歷</t>
+  </si>
+  <si>
+    <t>至道歷</t>
+  </si>
+  <si>
+    <t>儀天歷</t>
+  </si>
+  <si>
+    <t>乾興歷</t>
+  </si>
+  <si>
+    <t>崇天歷</t>
+  </si>
+  <si>
+    <t>明天歷</t>
+  </si>
+  <si>
+    <t>奉元歷</t>
+  </si>
+  <si>
+    <t>奉元術</t>
+  </si>
+  <si>
+    <t>十二氣歷</t>
+  </si>
+  <si>
+    <t>夢溪筆談</t>
+  </si>
+  <si>
+    <t>觀天歷</t>
+  </si>
+  <si>
+    <t>占天歷</t>
+  </si>
+  <si>
+    <t>占天術</t>
+  </si>
+  <si>
+    <t>紀元歷</t>
+  </si>
+  <si>
+    <t>統元歷</t>
+  </si>
+  <si>
+    <t>乾道歷</t>
+  </si>
+  <si>
+    <t>淳熙歷</t>
+  </si>
+  <si>
+    <t>重修大明歷</t>
+  </si>
+  <si>
+    <t>乙未元歷</t>
+  </si>
+  <si>
+    <t>五星再聚歷</t>
+  </si>
+  <si>
+    <t>會元歷</t>
+  </si>
+  <si>
+    <t>統天歷</t>
+  </si>
+  <si>
+    <t>開禧歷</t>
+  </si>
+  <si>
+    <t>西征庚午元歷</t>
+  </si>
+  <si>
+    <t>淳祐歷</t>
+  </si>
+  <si>
+    <t>會天歷</t>
+  </si>
+  <si>
+    <t>萬年歷</t>
+  </si>
+  <si>
+    <t>成天歷</t>
+  </si>
+  <si>
+    <t>本天歷</t>
+  </si>
+  <si>
+    <t>授時歷</t>
+  </si>
+  <si>
+    <t>大統歷</t>
+  </si>
+  <si>
+    <t>圣壽萬年歷</t>
+  </si>
+  <si>
+    <t>黃鐘歷</t>
+  </si>
+  <si>
+    <t>古今圖書集成歷法典</t>
+  </si>
+  <si>
+    <t>新法歷</t>
+  </si>
+  <si>
+    <t>時憲歷</t>
+  </si>
+  <si>
+    <t>崇禎歷書</t>
+  </si>
+  <si>
+    <t>曉庵歷</t>
+  </si>
+  <si>
+    <t>曉庵新法</t>
+  </si>
+  <si>
+    <t>天歷</t>
+  </si>
+  <si>
+    <t>己未九年改歷詔旨</t>
   </si>
 </sst>
 </file>
@@ -63,10 +435,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -82,8 +454,67 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -98,33 +529,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -145,27 +554,29 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -180,51 +591,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -232,6 +604,36 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -241,7 +643,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,25 +673,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,37 +739,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,73 +763,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,7 +775,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,11 +801,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,8 +834,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,38 +882,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,10 +906,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -546,16 +918,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,115 +936,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1002,87 +1374,1724 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.775" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="11.775" style="1"/>
-    <col min="2" max="2" width="10.5583333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.775" style="1"/>
+    <col min="1" max="1" width="11.7777777777778" style="1"/>
+    <col min="2" max="3" width="10.5555555555556" style="1" customWidth="1"/>
+    <col min="4" max="5" width="10.6666666666667" style="1" customWidth="1"/>
+    <col min="6" max="8" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="9" max="10" width="7.22222222222222" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.77777777777778" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:5">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:1">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:4">
       <c r="A5" s="1">
         <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10020001</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-104</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-104</v>
+      </c>
+      <c r="J11" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10030001</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="1">
+        <v>85</v>
+      </c>
+      <c r="I12" s="1">
+        <v>85</v>
+      </c>
+      <c r="J12" s="1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1">
+        <v>10050001</v>
+      </c>
+      <c r="F13" s="1">
+        <v>700180021</v>
+      </c>
+      <c r="G13" s="1">
+        <v>206</v>
+      </c>
+      <c r="I13" s="1">
+        <v>223</v>
+      </c>
+      <c r="J13" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="1">
+        <v>800180004</v>
+      </c>
+      <c r="G14" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="1">
+        <v>800180005</v>
+      </c>
+      <c r="G15" s="1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="1">
+        <v>800180006</v>
+      </c>
+      <c r="G16" s="1">
+        <v>237</v>
+      </c>
+      <c r="I16" s="1">
+        <v>237</v>
+      </c>
+      <c r="J16" s="1">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="1">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="1">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="1">
+        <v>10050001</v>
+      </c>
+      <c r="G20" s="1">
+        <v>384</v>
+      </c>
+      <c r="I20" s="1">
+        <v>384</v>
+      </c>
+      <c r="J20" s="1">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="1">
+        <v>412</v>
+      </c>
+      <c r="I21" s="1">
+        <v>412</v>
+      </c>
+      <c r="J21" s="1">
+        <v>439</v>
+      </c>
+      <c r="K21" s="1">
+        <v>452</v>
+      </c>
+      <c r="L21" s="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="1">
+        <v>10070006</v>
+      </c>
+      <c r="G22" s="1">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="1">
+        <v>10060001</v>
+      </c>
+      <c r="G23" s="1">
+        <v>443</v>
+      </c>
+      <c r="I23" s="1">
+        <v>445</v>
+      </c>
+      <c r="J23" s="1">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="1">
+        <v>10060001</v>
+      </c>
+      <c r="G24" s="1">
+        <v>462</v>
+      </c>
+      <c r="I24" s="1">
+        <v>510</v>
+      </c>
+      <c r="J24" s="1">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="1">
+        <v>10070001</v>
+      </c>
+      <c r="G25" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="1">
+        <v>10070001</v>
+      </c>
+      <c r="G26" s="1">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="1">
+        <v>10070001</v>
+      </c>
+      <c r="G27" s="1">
+        <v>521</v>
+      </c>
+      <c r="I27" s="1">
+        <v>523</v>
+      </c>
+      <c r="J27" s="1">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="1">
+        <v>10070001</v>
+      </c>
+      <c r="G28" s="1">
+        <v>540</v>
+      </c>
+      <c r="I28" s="1">
+        <v>540</v>
+      </c>
+      <c r="J28" s="1">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="1">
+        <v>10070004</v>
+      </c>
+      <c r="G29" s="1">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="1">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="1">
+        <v>550</v>
+      </c>
+      <c r="I31" s="1">
+        <v>551</v>
+      </c>
+      <c r="J31" s="1">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" s="1">
+        <v>566</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I32" s="1">
+        <v>566</v>
+      </c>
+      <c r="J32" s="1">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>29</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="1">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="1">
+        <v>10070004</v>
+      </c>
+      <c r="G34" s="1">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>31</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="1">
+        <v>10070004</v>
+      </c>
+      <c r="G35" s="1">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1">
+        <v>32</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="1">
+        <v>10070004</v>
+      </c>
+      <c r="G36" s="1">
+        <v>579</v>
+      </c>
+      <c r="I36" s="1">
+        <v>579</v>
+      </c>
+      <c r="J36" s="1">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1">
+        <v>33</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="1">
+        <v>10070004</v>
+      </c>
+      <c r="G37" s="1">
+        <v>584</v>
+      </c>
+      <c r="I37" s="1">
+        <v>584</v>
+      </c>
+      <c r="J37" s="1">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1">
+        <v>34</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="1">
+        <v>10070004</v>
+      </c>
+      <c r="G38" s="1">
+        <v>597</v>
+      </c>
+      <c r="I38" s="1">
+        <v>597</v>
+      </c>
+      <c r="J38" s="1">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>35</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="1">
+        <v>10070004</v>
+      </c>
+      <c r="G39" s="1">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1">
+        <v>36</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40" s="1">
+        <v>619</v>
+      </c>
+      <c r="I40" s="1">
+        <v>619</v>
+      </c>
+      <c r="J40" s="1">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1">
+        <v>37</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G41" s="1">
+        <v>665</v>
+      </c>
+      <c r="I41" s="1">
+        <v>665</v>
+      </c>
+      <c r="J41" s="1">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>38</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G42" s="1">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>39</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="1">
+        <v>10080001</v>
+      </c>
+      <c r="G43" s="1">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1">
+        <v>40</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G44" s="1">
+        <v>728</v>
+      </c>
+      <c r="I44" s="1">
+        <v>729</v>
+      </c>
+      <c r="J44" s="1">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1">
+        <v>41</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="1">
+        <v>10080004</v>
+      </c>
+      <c r="G45" s="1">
+        <v>758</v>
+      </c>
+      <c r="I45" s="1">
+        <v>758</v>
+      </c>
+      <c r="J45" s="1">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1">
+        <v>42</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="1">
+        <v>10080004</v>
+      </c>
+      <c r="G46" s="1">
+        <v>762</v>
+      </c>
+      <c r="I46" s="1">
+        <v>762</v>
+      </c>
+      <c r="J46" s="1">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>43</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="1">
+        <v>10090003</v>
+      </c>
+      <c r="G47" s="1">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1">
+        <v>44</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="1">
+        <v>10080004</v>
+      </c>
+      <c r="G48" s="1">
+        <v>783</v>
+      </c>
+      <c r="I48" s="1">
+        <v>784</v>
+      </c>
+      <c r="J48" s="1">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1">
+        <v>45</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="1">
+        <v>10080004</v>
+      </c>
+      <c r="G49" s="1">
+        <v>807</v>
+      </c>
+      <c r="I49" s="1">
+        <v>807</v>
+      </c>
+      <c r="J49" s="1">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1">
+        <v>46</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="1">
+        <v>10080004</v>
+      </c>
+      <c r="G50" s="1">
+        <v>822</v>
+      </c>
+      <c r="I50" s="1">
+        <v>822</v>
+      </c>
+      <c r="J50" s="1">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="1">
+        <v>47</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="1">
+        <v>10080004</v>
+      </c>
+      <c r="G51" s="1">
+        <v>893</v>
+      </c>
+      <c r="I51" s="1">
+        <v>893</v>
+      </c>
+      <c r="J51" s="1">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="1">
+        <v>48</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" s="1">
+        <v>11020004</v>
+      </c>
+      <c r="G52" s="1">
+        <v>909</v>
+      </c>
+      <c r="I52" s="1">
+        <v>909</v>
+      </c>
+      <c r="J52" s="1">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1">
+        <v>49</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" s="1">
+        <v>11020004</v>
+      </c>
+      <c r="G53" s="1">
+        <v>912</v>
+      </c>
+      <c r="I53" s="1">
+        <v>912</v>
+      </c>
+      <c r="J53" s="1">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="1">
+        <v>50</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G54" s="1">
+        <v>937</v>
+      </c>
+      <c r="I54" s="1">
+        <v>939</v>
+      </c>
+      <c r="J54" s="1">
+        <v>943</v>
+      </c>
+      <c r="K54" s="1">
+        <v>947</v>
+      </c>
+      <c r="L54" s="1">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1">
+        <v>51</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G55" s="1">
+        <v>940</v>
+      </c>
+      <c r="I55" s="1">
+        <v>940</v>
+      </c>
+      <c r="J55" s="1">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1">
+        <v>52</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G56" s="1">
+        <v>950</v>
+      </c>
+      <c r="I56" s="1">
+        <v>950</v>
+      </c>
+      <c r="J56" s="1">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>53</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G57" s="1">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1">
+        <v>54</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G58" s="1">
+        <v>956</v>
+      </c>
+      <c r="I58" s="1">
+        <v>956</v>
+      </c>
+      <c r="J58" s="1">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="1">
+        <v>55</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" s="1">
+        <v>10100001</v>
+      </c>
+      <c r="G59" s="1">
+        <v>963</v>
+      </c>
+      <c r="I59" s="1">
+        <v>964</v>
+      </c>
+      <c r="J59" s="1">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="1">
+        <v>56</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" s="1">
+        <v>10100001</v>
+      </c>
+      <c r="G60" s="1">
+        <v>981</v>
+      </c>
+      <c r="I60" s="1">
+        <v>983</v>
+      </c>
+      <c r="J60" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="1">
+        <v>57</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" s="1">
+        <v>10110001</v>
+      </c>
+      <c r="G61" s="1">
+        <v>994</v>
+      </c>
+      <c r="I61" s="1">
+        <v>995</v>
+      </c>
+      <c r="J61" s="1">
+        <v>1125</v>
+      </c>
+      <c r="K61" s="1">
+        <v>1123</v>
+      </c>
+      <c r="L61" s="1">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>58</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G62" s="1">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1">
+        <v>59</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D63" s="1">
+        <v>10100001</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1001</v>
+      </c>
+      <c r="I63" s="1">
+        <v>1001</v>
+      </c>
+      <c r="J63" s="1">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>60</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="1">
+        <v>61</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" s="1">
+        <v>10100001</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1024</v>
+      </c>
+      <c r="I65" s="1">
+        <v>1024</v>
+      </c>
+      <c r="J65" s="1">
+        <v>1064</v>
+      </c>
+      <c r="K65" s="1">
+        <v>1068</v>
+      </c>
+      <c r="L65" s="1">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1">
+        <v>62</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D66" s="1">
+        <v>10100001</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1064</v>
+      </c>
+      <c r="I66" s="1">
+        <v>1065</v>
+      </c>
+      <c r="J66" s="1">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1">
+        <v>63</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1074</v>
+      </c>
+      <c r="I67" s="1">
+        <v>1075</v>
+      </c>
+      <c r="J67" s="1">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
+        <v>64</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1">
+        <v>65</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69" s="1">
+        <v>10100001</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1092</v>
+      </c>
+      <c r="I69" s="1">
+        <v>1094</v>
+      </c>
+      <c r="J69" s="1">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1">
+        <v>66</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1103</v>
+      </c>
+      <c r="I70" s="1">
+        <v>1103</v>
+      </c>
+      <c r="J70" s="1">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="1">
+        <v>67</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D71" s="1">
+        <v>10100001</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1106</v>
+      </c>
+      <c r="I71" s="1">
+        <v>1106</v>
+      </c>
+      <c r="J71" s="1">
+        <v>1127</v>
+      </c>
+      <c r="K71" s="1">
+        <v>1133</v>
+      </c>
+      <c r="L71" s="1">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1">
+        <v>68</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1127</v>
+      </c>
+      <c r="I72" s="1">
+        <v>1137</v>
+      </c>
+      <c r="J72" s="1">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1">
+        <v>69</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D73" s="1">
+        <v>10100001</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1135</v>
+      </c>
+      <c r="I73" s="1">
+        <v>1136</v>
+      </c>
+      <c r="J73" s="1">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1">
+        <v>70</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D74" s="1">
+        <v>10100001</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1167</v>
+      </c>
+      <c r="I74" s="1">
+        <v>1168</v>
+      </c>
+      <c r="J74" s="1">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1">
+        <v>71</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D75" s="1">
+        <v>10100001</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1176</v>
+      </c>
+      <c r="I75" s="1">
+        <v>1177</v>
+      </c>
+      <c r="J75" s="1">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="1">
+        <v>72</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D76" s="1">
+        <v>10120001</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1181</v>
+      </c>
+      <c r="I76" s="1">
+        <v>1181</v>
+      </c>
+      <c r="J76" s="1">
+        <v>1234</v>
+      </c>
+      <c r="K76" s="1">
+        <v>1215</v>
+      </c>
+      <c r="L76" s="1">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
+        <v>73</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D77" s="1">
+        <v>10120001</v>
+      </c>
+      <c r="G77" s="1">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
+        <v>74</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G78" s="1">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1">
+        <v>75</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D79" s="1">
+        <v>10100001</v>
+      </c>
+      <c r="G79" s="1">
+        <v>1191</v>
+      </c>
+      <c r="I79" s="1">
+        <v>1191</v>
+      </c>
+      <c r="J79" s="1">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1">
+        <v>76</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D80" s="1">
+        <v>10100001</v>
+      </c>
+      <c r="G80" s="1">
+        <v>1199</v>
+      </c>
+      <c r="I80" s="1">
+        <v>1199</v>
+      </c>
+      <c r="J80" s="1">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="1">
+        <v>77</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D81" s="1">
+        <v>10100001</v>
+      </c>
+      <c r="G81" s="1">
+        <v>1207</v>
+      </c>
+      <c r="I81" s="1">
+        <v>1208</v>
+      </c>
+      <c r="J81" s="1">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
+        <v>78</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D82" s="1">
+        <v>10130001</v>
+      </c>
+      <c r="G82" s="1">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="1">
+        <v>79</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G83" s="1">
+        <v>1250</v>
+      </c>
+      <c r="I83" s="1">
+        <v>1252</v>
+      </c>
+      <c r="J83" s="1">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="1">
+        <v>80</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G84" s="1">
+        <v>1253</v>
+      </c>
+      <c r="I84" s="1">
+        <v>1253</v>
+      </c>
+      <c r="J84" s="1">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
+        <v>81</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G85" s="1">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="1">
+        <v>82</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D86" s="1">
+        <v>10100001</v>
+      </c>
+      <c r="G86" s="1">
+        <v>1271</v>
+      </c>
+      <c r="I86" s="1">
+        <v>1271</v>
+      </c>
+      <c r="J86" s="1">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="1">
+        <v>83</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G87" s="1">
+        <v>1277</v>
+      </c>
+      <c r="I87" s="1">
+        <v>1277</v>
+      </c>
+      <c r="J87" s="1">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="1">
+        <v>84</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D88" s="1">
+        <v>10130001</v>
+      </c>
+      <c r="G88" s="1">
+        <v>1280</v>
+      </c>
+      <c r="I88" s="1">
+        <v>1281</v>
+      </c>
+      <c r="J88" s="1">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
+        <v>85</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D89" s="1">
+        <v>83040003</v>
+      </c>
+      <c r="G89" s="1">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
+        <v>86</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G90" s="1">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="1">
+        <v>87</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G91" s="1">
+        <v>1634</v>
+      </c>
+      <c r="I91" s="1">
+        <v>1645</v>
+      </c>
+      <c r="J91" s="1">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
+        <v>88</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G92" s="1">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="1">
+        <v>89</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G93" s="1">
+        <v>1852</v>
+      </c>
+      <c r="I93" s="1">
+        <v>1852</v>
+      </c>
+      <c r="J93" s="1">
+        <v>1864</v>
       </c>
     </row>
   </sheetData>

--- a/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Calendar.xlsx
+++ b/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Calendar.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="139">
   <si>
     <t>@default</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>Character</t>
   </si>
   <si>
     <t>Year</t>
@@ -1373,8 +1379,8 @@
   <sheetPr/>
   <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6"/>
@@ -1392,137 +1398,143 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:4">
@@ -1530,10 +1542,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1541,10 +1553,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J6" s="1">
         <v>-104</v>
@@ -1555,10 +1567,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1566,10 +1578,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1577,10 +1589,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1588,10 +1600,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1599,16 +1611,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1">
         <v>10020001</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G11" s="1">
         <v>-104</v>
@@ -1625,13 +1637,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1">
         <v>10030001</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G12" s="1">
         <v>85</v>
@@ -1648,7 +1660,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1">
         <v>10050001</v>
@@ -1671,7 +1683,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F14" s="1">
         <v>800180004</v>
@@ -1685,7 +1697,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F15" s="1">
         <v>800180005</v>
@@ -1699,13 +1711,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F16" s="1">
         <v>800180006</v>
@@ -1725,7 +1737,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G17" s="1">
         <v>274</v>
@@ -1736,7 +1748,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G18" s="1">
         <v>277</v>
@@ -1747,7 +1759,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G19" s="1">
         <v>352</v>
@@ -1758,7 +1770,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D20" s="1">
         <v>10050001</v>
@@ -1778,7 +1790,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G21" s="1">
         <v>412</v>
@@ -1801,7 +1813,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D22" s="1">
         <v>10070006</v>
@@ -1815,10 +1827,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D23" s="1">
         <v>10060001</v>
@@ -1838,7 +1850,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D24" s="1">
         <v>10060001</v>
@@ -1858,7 +1870,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D25" s="1">
         <v>10070001</v>
@@ -1872,7 +1884,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D26" s="1">
         <v>10070001</v>
@@ -1886,7 +1898,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D27" s="1">
         <v>10070001</v>
@@ -1906,7 +1918,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D28" s="1">
         <v>10070001</v>
@@ -1926,7 +1938,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D29" s="1">
         <v>10070004</v>
@@ -1940,7 +1952,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G30" s="1">
         <v>547</v>
@@ -1951,7 +1963,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G31" s="1">
         <v>550</v>
@@ -1968,13 +1980,13 @@
         <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G32" s="1">
         <v>566</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I32" s="1">
         <v>566</v>
@@ -1988,7 +2000,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G33" s="1">
         <v>576</v>
@@ -1999,7 +2011,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D34" s="1">
         <v>10070004</v>
@@ -2013,7 +2025,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D35" s="1">
         <v>10070004</v>
@@ -2027,7 +2039,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D36" s="1">
         <v>10070004</v>
@@ -2047,7 +2059,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D37" s="1">
         <v>10070004</v>
@@ -2067,7 +2079,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D38" s="1">
         <v>10070004</v>
@@ -2087,7 +2099,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D39" s="1">
         <v>10070004</v>
@@ -2101,10 +2113,10 @@
         <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G40" s="1">
         <v>619</v>
@@ -2121,10 +2133,10 @@
         <v>37</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G41" s="1">
         <v>665</v>
@@ -2141,7 +2153,7 @@
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G42" s="1">
         <v>698</v>
@@ -2152,7 +2164,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D43" s="1">
         <v>10080001</v>
@@ -2166,10 +2178,10 @@
         <v>40</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G44" s="1">
         <v>728</v>
@@ -2186,7 +2198,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D45" s="1">
         <v>10080004</v>
@@ -2206,7 +2218,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D46" s="1">
         <v>10080004</v>
@@ -2226,7 +2238,7 @@
         <v>43</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D47" s="1">
         <v>10090003</v>
@@ -2240,7 +2252,7 @@
         <v>44</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D48" s="1">
         <v>10080004</v>
@@ -2260,7 +2272,7 @@
         <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D49" s="1">
         <v>10080004</v>
@@ -2280,7 +2292,7 @@
         <v>46</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D50" s="1">
         <v>10080004</v>
@@ -2300,7 +2312,7 @@
         <v>47</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D51" s="1">
         <v>10080004</v>
@@ -2320,7 +2332,7 @@
         <v>48</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D52" s="1">
         <v>11020004</v>
@@ -2340,7 +2352,7 @@
         <v>49</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D53" s="1">
         <v>11020004</v>
@@ -2360,7 +2372,7 @@
         <v>50</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G54" s="1">
         <v>937</v>
@@ -2383,7 +2395,7 @@
         <v>51</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G55" s="1">
         <v>940</v>
@@ -2400,7 +2412,7 @@
         <v>52</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G56" s="1">
         <v>950</v>
@@ -2417,7 +2429,7 @@
         <v>53</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G57" s="1">
         <v>952</v>
@@ -2428,10 +2440,10 @@
         <v>54</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G58" s="1">
         <v>956</v>
@@ -2448,7 +2460,7 @@
         <v>55</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D59" s="1">
         <v>10100001</v>
@@ -2468,7 +2480,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D60" s="1">
         <v>10100001</v>
@@ -2488,7 +2500,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D61" s="1">
         <v>10110001</v>
@@ -2514,7 +2526,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G62" s="1">
         <v>995</v>
@@ -2525,7 +2537,7 @@
         <v>59</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D63" s="1">
         <v>10100001</v>
@@ -2545,7 +2557,7 @@
         <v>60</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G64" s="1">
         <v>1022</v>
@@ -2556,7 +2568,7 @@
         <v>61</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D65" s="1">
         <v>10100001</v>
@@ -2582,7 +2594,7 @@
         <v>62</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D66" s="1">
         <v>10100001</v>
@@ -2602,10 +2614,10 @@
         <v>63</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G67" s="1">
         <v>1074</v>
@@ -2622,10 +2634,10 @@
         <v>64</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G68" s="1">
         <v>1086</v>
@@ -2636,7 +2648,7 @@
         <v>65</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D69" s="1">
         <v>10100001</v>
@@ -2656,10 +2668,10 @@
         <v>66</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G70" s="1">
         <v>1103</v>
@@ -2676,7 +2688,7 @@
         <v>67</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D71" s="1">
         <v>10100001</v>
@@ -2702,7 +2714,7 @@
         <v>68</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G72" s="1">
         <v>1127</v>
@@ -2719,7 +2731,7 @@
         <v>69</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D73" s="1">
         <v>10100001</v>
@@ -2739,7 +2751,7 @@
         <v>70</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D74" s="1">
         <v>10100001</v>
@@ -2759,7 +2771,7 @@
         <v>71</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D75" s="1">
         <v>10100001</v>
@@ -2779,7 +2791,7 @@
         <v>72</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D76" s="1">
         <v>10120001</v>
@@ -2805,7 +2817,7 @@
         <v>73</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D77" s="1">
         <v>10120001</v>
@@ -2819,7 +2831,7 @@
         <v>74</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G78" s="1">
         <v>1187</v>
@@ -2830,7 +2842,7 @@
         <v>75</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D79" s="1">
         <v>10100001</v>
@@ -2850,7 +2862,7 @@
         <v>76</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D80" s="1">
         <v>10100001</v>
@@ -2870,7 +2882,7 @@
         <v>77</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D81" s="1">
         <v>10100001</v>
@@ -2890,7 +2902,7 @@
         <v>78</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D82" s="1">
         <v>10130001</v>
@@ -2904,7 +2916,7 @@
         <v>79</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G83" s="1">
         <v>1250</v>
@@ -2921,7 +2933,7 @@
         <v>80</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G84" s="1">
         <v>1253</v>
@@ -2938,7 +2950,7 @@
         <v>81</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G85" s="1">
         <v>1267</v>
@@ -2949,7 +2961,7 @@
         <v>82</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D86" s="1">
         <v>10100001</v>
@@ -2969,7 +2981,7 @@
         <v>83</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G87" s="1">
         <v>1277</v>
@@ -2986,10 +2998,10 @@
         <v>84</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D88" s="1">
         <v>10130001</v>
@@ -3009,7 +3021,7 @@
         <v>85</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D89" s="1">
         <v>83040003</v>
@@ -3023,10 +3035,10 @@
         <v>86</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G90" s="1">
         <v>1581</v>
@@ -3037,13 +3049,13 @@
         <v>87</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G91" s="1">
         <v>1634</v>
@@ -3060,10 +3072,10 @@
         <v>88</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G92" s="1">
         <v>1663</v>
@@ -3074,10 +3086,10 @@
         <v>89</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G93" s="1">
         <v>1852</v>
